--- a/biology/Zoologie/Hemidactylus_garnotii/Hemidactylus_garnotii.xlsx
+++ b/biology/Zoologie/Hemidactylus_garnotii/Hemidactylus_garnotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus garnotii ou Hémidactyle indo-pacifique est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus garnotii ou Hémidactyle indo-pacifique est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Inde, au Bangladesh, au Bhoutan, en Népal, en Birmanie, en Thaïlande, en Malaisie, en Indonésie, aux Philippines, en Chine et à Taïwan ;
 en Nouvelle-Guinée, en Nouvelle-Calédonie, au Vanuatu, aux Fidji, aux Tonga, aux Samoa, aux îles Cook et en Polynésie française ;
 Elle a été introduite à Hawaï et en Floride aux États-Unis, aux Bahamas, au Costa Rica et en Nouvelle-Zélande.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est parthénogénétique[1], ce qui en fait un excellent colonisateur, à condition qu'il ne soit pas en concurrence avec une espèce sexuée comme le Tjictjac (Gecko asiatique Hemidactylus frenatus)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est parthénogénétique, ce qui en fait un excellent colonisateur, à condition qu'il ne soit pas en concurrence avec une espèce sexuée comme le Tjictjac (Gecko asiatique Hemidactylus frenatus).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Prosper Garnot (1794–1838)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Prosper Garnot (1794–1838).
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1836 : Erpetologie Générale ou Histoire Naturelle Complete des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).</t>
         </is>
